--- a/assets/Timesheet - Input.xlsx
+++ b/assets/Timesheet - Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoPereiraSTREAM\Documents\GitHub\timesheet-streamlit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B21294-62F7-44FD-99F8-F3F310A539D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B2128-A451-4865-A6F7-C63EAD82583F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15360" windowHeight="15585" activeTab="1" xr2:uid="{CDF0DF45-59B4-4BB1-9027-F279E280C983}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{CDF0DF45-59B4-4BB1-9027-F279E280C983}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipa de projeto" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>ANO 1</t>
   </si>
@@ -512,7 +512,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +751,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2006,7 +2014,7 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2403,42 +2411,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2484,7 +2456,46 @@
     <xf numFmtId="1" fontId="22" fillId="4" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Ativo" xfId="6" xr:uid="{03176475-1914-462C-8076-E54FAA7BF656}"/>
@@ -2497,17 +2508,7 @@
     <cellStyle name="Planeado" xfId="8" xr:uid="{1D44D2E3-BBF3-4FB0-A130-9A4AF80696BC}"/>
     <cellStyle name="Real" xfId="7" xr:uid="{11D2C9C7-8D8E-40DC-9B61-E4F967B8D4AB}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2897,8 +2898,8 @@
   </sheetPr>
   <dimension ref="B1:T69"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,56 +3019,56 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="146"/>
-      <c r="C6" s="144" t="s">
+      <c r="B6" s="161"/>
+      <c r="C6" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="144" t="s">
+      <c r="M6" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
     </row>
     <row r="7" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="146"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
     </row>
     <row r="8" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="37"/>
-      <c r="C8" s="145"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="29" t="s">
         <v>47</v>
       </c>
@@ -4532,10 +4533,10 @@
   <dimension ref="A1:BL245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A236" sqref="A236:XFD236"/>
+      <selection pane="bottomRight" activeCell="BE214" sqref="BE214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4562,18 +4563,18 @@
     <col min="37" max="37" width="11.42578125" style="8" customWidth="1"/>
     <col min="38" max="39" width="11.140625" style="8" customWidth="1"/>
     <col min="40" max="52" width="11.42578125" style="8" customWidth="1"/>
-    <col min="53" max="53" width="30.140625" style="8" customWidth="1"/>
-    <col min="54" max="54" width="6.85546875" style="8" customWidth="1"/>
-    <col min="55" max="55" width="8.140625" style="8" customWidth="1"/>
+    <col min="53" max="53" width="30.7109375" style="8" customWidth="1"/>
+    <col min="54" max="54" width="3" style="8" customWidth="1"/>
+    <col min="55" max="55" width="15.7109375" style="8" customWidth="1"/>
     <col min="56" max="56" width="6" style="8" customWidth="1"/>
     <col min="57" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="7" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
       <c r="E1" s="106"/>
       <c r="F1" s="106"/>
       <c r="G1" s="106"/>
@@ -4627,76 +4628,76 @@
       <c r="BC1" s="106"/>
     </row>
     <row r="2" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="151" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="151" t="s">
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="152"/>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="152"/>
-      <c r="AM2" s="152"/>
-      <c r="AN2" s="153"/>
-      <c r="AO2" s="151" t="s">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="167"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="167"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="152"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="152"/>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="153"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="167"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="167"/>
+      <c r="AV2" s="167"/>
+      <c r="AW2" s="167"/>
+      <c r="AX2" s="167"/>
+      <c r="AY2" s="167"/>
+      <c r="AZ2" s="168"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="107"/>
       <c r="BC2" s="107"/>
       <c r="BD2" s="15"/>
     </row>
     <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="155"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="80" t="s">
         <v>5</v>
       </c>
@@ -4847,10 +4848,10 @@
       <c r="BD3" s="15"/>
     </row>
     <row r="4" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="84">
         <v>45292</v>
       </c>
@@ -5049,8 +5050,8 @@
     </row>
     <row r="5" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
       <c r="D5" s="39" t="s">
         <v>66</v>
       </c>
@@ -5109,8 +5110,8 @@
     </row>
     <row r="6" spans="1:60" ht="36.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="39" t="s">
         <v>67</v>
       </c>
@@ -5310,8 +5311,8 @@
     </row>
     <row r="7" spans="1:60" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
       <c r="D7" s="39" t="s">
         <v>68</v>
       </c>
@@ -5514,8 +5515,8 @@
     </row>
     <row r="8" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="107"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="40" t="s">
         <v>69</v>
       </c>
@@ -5574,8 +5575,8 @@
     </row>
     <row r="9" spans="1:60" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="107"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="41" t="s">
         <v>70</v>
       </c>
@@ -5634,8 +5635,8 @@
     </row>
     <row r="10" spans="1:60" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="107"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="92" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +5839,8 @@
     </row>
     <row r="11" spans="1:60" s="7" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="106"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="92" t="s">
         <v>71</v>
       </c>
@@ -22084,55 +22085,55 @@
       <c r="A236" s="107"/>
       <c r="B236" s="107"/>
       <c r="C236" s="131"/>
-      <c r="D236" s="156"/>
-      <c r="E236" s="157"/>
-      <c r="F236" s="158"/>
-      <c r="G236" s="158"/>
-      <c r="H236" s="158"/>
-      <c r="I236" s="158"/>
-      <c r="J236" s="158"/>
-      <c r="K236" s="158"/>
-      <c r="L236" s="158"/>
-      <c r="M236" s="158"/>
-      <c r="N236" s="158"/>
-      <c r="O236" s="158"/>
-      <c r="P236" s="158"/>
-      <c r="Q236" s="158"/>
-      <c r="R236" s="158"/>
-      <c r="S236" s="158"/>
-      <c r="T236" s="158"/>
-      <c r="U236" s="158"/>
-      <c r="V236" s="158"/>
-      <c r="W236" s="158"/>
-      <c r="X236" s="158"/>
-      <c r="Y236" s="158"/>
-      <c r="Z236" s="158"/>
-      <c r="AA236" s="158"/>
-      <c r="AB236" s="158"/>
-      <c r="AC236" s="158"/>
-      <c r="AD236" s="158"/>
-      <c r="AE236" s="158"/>
-      <c r="AF236" s="158"/>
-      <c r="AG236" s="158"/>
-      <c r="AH236" s="158"/>
-      <c r="AI236" s="158"/>
-      <c r="AJ236" s="158"/>
-      <c r="AK236" s="158"/>
-      <c r="AL236" s="158"/>
-      <c r="AM236" s="158"/>
-      <c r="AN236" s="158"/>
-      <c r="AO236" s="158"/>
-      <c r="AP236" s="158"/>
-      <c r="AQ236" s="158"/>
-      <c r="AR236" s="158"/>
-      <c r="AS236" s="158"/>
-      <c r="AT236" s="158"/>
-      <c r="AU236" s="158"/>
-      <c r="AV236" s="158"/>
-      <c r="AW236" s="158"/>
-      <c r="AX236" s="158"/>
-      <c r="AY236" s="158"/>
-      <c r="AZ236" s="159"/>
+      <c r="D236" s="144"/>
+      <c r="E236" s="145"/>
+      <c r="F236" s="146"/>
+      <c r="G236" s="146"/>
+      <c r="H236" s="146"/>
+      <c r="I236" s="146"/>
+      <c r="J236" s="146"/>
+      <c r="K236" s="146"/>
+      <c r="L236" s="146"/>
+      <c r="M236" s="146"/>
+      <c r="N236" s="146"/>
+      <c r="O236" s="146"/>
+      <c r="P236" s="146"/>
+      <c r="Q236" s="146"/>
+      <c r="R236" s="146"/>
+      <c r="S236" s="146"/>
+      <c r="T236" s="146"/>
+      <c r="U236" s="146"/>
+      <c r="V236" s="146"/>
+      <c r="W236" s="146"/>
+      <c r="X236" s="146"/>
+      <c r="Y236" s="146"/>
+      <c r="Z236" s="146"/>
+      <c r="AA236" s="146"/>
+      <c r="AB236" s="146"/>
+      <c r="AC236" s="146"/>
+      <c r="AD236" s="146"/>
+      <c r="AE236" s="146"/>
+      <c r="AF236" s="146"/>
+      <c r="AG236" s="146"/>
+      <c r="AH236" s="146"/>
+      <c r="AI236" s="146"/>
+      <c r="AJ236" s="146"/>
+      <c r="AK236" s="146"/>
+      <c r="AL236" s="146"/>
+      <c r="AM236" s="146"/>
+      <c r="AN236" s="146"/>
+      <c r="AO236" s="146"/>
+      <c r="AP236" s="146"/>
+      <c r="AQ236" s="146"/>
+      <c r="AR236" s="146"/>
+      <c r="AS236" s="146"/>
+      <c r="AT236" s="146"/>
+      <c r="AU236" s="146"/>
+      <c r="AV236" s="146"/>
+      <c r="AW236" s="146"/>
+      <c r="AX236" s="146"/>
+      <c r="AY236" s="146"/>
+      <c r="AZ236" s="147"/>
       <c r="BA236" s="107"/>
       <c r="BB236" s="107"/>
       <c r="BC236" s="107"/>
@@ -22149,56 +22150,56 @@
     <row r="237" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A237" s="107"/>
       <c r="B237" s="107"/>
-      <c r="C237" s="171"/>
-      <c r="D237" s="160"/>
-      <c r="E237" s="161"/>
-      <c r="F237" s="162"/>
-      <c r="G237" s="162"/>
-      <c r="H237" s="162"/>
-      <c r="I237" s="162"/>
-      <c r="J237" s="162"/>
-      <c r="K237" s="162"/>
-      <c r="L237" s="162"/>
-      <c r="M237" s="162"/>
-      <c r="N237" s="162"/>
-      <c r="O237" s="162"/>
-      <c r="P237" s="162"/>
-      <c r="Q237" s="162"/>
-      <c r="R237" s="162"/>
-      <c r="S237" s="162"/>
-      <c r="T237" s="162"/>
-      <c r="U237" s="162"/>
-      <c r="V237" s="162"/>
-      <c r="W237" s="162"/>
-      <c r="X237" s="162"/>
-      <c r="Y237" s="162"/>
-      <c r="Z237" s="162"/>
-      <c r="AA237" s="162"/>
-      <c r="AB237" s="162"/>
-      <c r="AC237" s="162"/>
-      <c r="AD237" s="162"/>
-      <c r="AE237" s="162"/>
-      <c r="AF237" s="162"/>
-      <c r="AG237" s="162"/>
-      <c r="AH237" s="162"/>
-      <c r="AI237" s="162"/>
-      <c r="AJ237" s="162"/>
-      <c r="AK237" s="162"/>
-      <c r="AL237" s="162"/>
-      <c r="AM237" s="162"/>
-      <c r="AN237" s="162"/>
-      <c r="AO237" s="162"/>
-      <c r="AP237" s="162"/>
-      <c r="AQ237" s="162"/>
-      <c r="AR237" s="162"/>
-      <c r="AS237" s="162"/>
-      <c r="AT237" s="162"/>
-      <c r="AU237" s="162"/>
-      <c r="AV237" s="162"/>
-      <c r="AW237" s="162"/>
-      <c r="AX237" s="162"/>
-      <c r="AY237" s="162"/>
-      <c r="AZ237" s="163"/>
+      <c r="C237" s="107"/>
+      <c r="D237" s="148"/>
+      <c r="E237" s="149"/>
+      <c r="F237" s="150"/>
+      <c r="G237" s="150"/>
+      <c r="H237" s="150"/>
+      <c r="I237" s="150"/>
+      <c r="J237" s="150"/>
+      <c r="K237" s="150"/>
+      <c r="L237" s="150"/>
+      <c r="M237" s="150"/>
+      <c r="N237" s="150"/>
+      <c r="O237" s="150"/>
+      <c r="P237" s="150"/>
+      <c r="Q237" s="150"/>
+      <c r="R237" s="150"/>
+      <c r="S237" s="150"/>
+      <c r="T237" s="150"/>
+      <c r="U237" s="150"/>
+      <c r="V237" s="150"/>
+      <c r="W237" s="150"/>
+      <c r="X237" s="150"/>
+      <c r="Y237" s="150"/>
+      <c r="Z237" s="150"/>
+      <c r="AA237" s="150"/>
+      <c r="AB237" s="150"/>
+      <c r="AC237" s="150"/>
+      <c r="AD237" s="150"/>
+      <c r="AE237" s="150"/>
+      <c r="AF237" s="150"/>
+      <c r="AG237" s="150"/>
+      <c r="AH237" s="150"/>
+      <c r="AI237" s="150"/>
+      <c r="AJ237" s="150"/>
+      <c r="AK237" s="150"/>
+      <c r="AL237" s="150"/>
+      <c r="AM237" s="150"/>
+      <c r="AN237" s="150"/>
+      <c r="AO237" s="150"/>
+      <c r="AP237" s="150"/>
+      <c r="AQ237" s="150"/>
+      <c r="AR237" s="150"/>
+      <c r="AS237" s="150"/>
+      <c r="AT237" s="150"/>
+      <c r="AU237" s="150"/>
+      <c r="AV237" s="150"/>
+      <c r="AW237" s="150"/>
+      <c r="AX237" s="150"/>
+      <c r="AY237" s="150"/>
+      <c r="AZ237" s="151"/>
       <c r="BA237" s="107"/>
       <c r="BB237" s="107"/>
       <c r="BC237" s="107"/>
@@ -22215,56 +22216,56 @@
     <row r="238" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A238" s="107"/>
       <c r="B238" s="107"/>
-      <c r="C238" s="171"/>
-      <c r="D238" s="164"/>
-      <c r="E238" s="165"/>
-      <c r="F238" s="166"/>
-      <c r="G238" s="166"/>
-      <c r="H238" s="166"/>
-      <c r="I238" s="166"/>
-      <c r="J238" s="166"/>
-      <c r="K238" s="166"/>
-      <c r="L238" s="166"/>
-      <c r="M238" s="166"/>
-      <c r="N238" s="166"/>
-      <c r="O238" s="166"/>
-      <c r="P238" s="166"/>
-      <c r="Q238" s="166"/>
-      <c r="R238" s="166"/>
-      <c r="S238" s="166"/>
-      <c r="T238" s="166"/>
-      <c r="U238" s="166"/>
-      <c r="V238" s="166"/>
-      <c r="W238" s="166"/>
-      <c r="X238" s="166"/>
-      <c r="Y238" s="166"/>
-      <c r="Z238" s="166"/>
-      <c r="AA238" s="166"/>
-      <c r="AB238" s="166"/>
-      <c r="AC238" s="166"/>
-      <c r="AD238" s="166"/>
-      <c r="AE238" s="166"/>
-      <c r="AF238" s="166"/>
-      <c r="AG238" s="166"/>
-      <c r="AH238" s="166"/>
-      <c r="AI238" s="166"/>
-      <c r="AJ238" s="166"/>
-      <c r="AK238" s="166"/>
-      <c r="AL238" s="166"/>
-      <c r="AM238" s="166"/>
-      <c r="AN238" s="166"/>
-      <c r="AO238" s="166"/>
-      <c r="AP238" s="166"/>
-      <c r="AQ238" s="166"/>
-      <c r="AR238" s="166"/>
-      <c r="AS238" s="166"/>
-      <c r="AT238" s="166"/>
-      <c r="AU238" s="166"/>
-      <c r="AV238" s="166"/>
-      <c r="AW238" s="166"/>
-      <c r="AX238" s="166"/>
-      <c r="AY238" s="166"/>
-      <c r="AZ238" s="167"/>
+      <c r="C238" s="107"/>
+      <c r="D238" s="152"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="154"/>
+      <c r="G238" s="154"/>
+      <c r="H238" s="154"/>
+      <c r="I238" s="154"/>
+      <c r="J238" s="154"/>
+      <c r="K238" s="154"/>
+      <c r="L238" s="154"/>
+      <c r="M238" s="154"/>
+      <c r="N238" s="154"/>
+      <c r="O238" s="154"/>
+      <c r="P238" s="154"/>
+      <c r="Q238" s="154"/>
+      <c r="R238" s="154"/>
+      <c r="S238" s="154"/>
+      <c r="T238" s="154"/>
+      <c r="U238" s="154"/>
+      <c r="V238" s="154"/>
+      <c r="W238" s="154"/>
+      <c r="X238" s="154"/>
+      <c r="Y238" s="154"/>
+      <c r="Z238" s="154"/>
+      <c r="AA238" s="154"/>
+      <c r="AB238" s="154"/>
+      <c r="AC238" s="154"/>
+      <c r="AD238" s="154"/>
+      <c r="AE238" s="154"/>
+      <c r="AF238" s="154"/>
+      <c r="AG238" s="154"/>
+      <c r="AH238" s="154"/>
+      <c r="AI238" s="154"/>
+      <c r="AJ238" s="154"/>
+      <c r="AK238" s="154"/>
+      <c r="AL238" s="154"/>
+      <c r="AM238" s="154"/>
+      <c r="AN238" s="154"/>
+      <c r="AO238" s="154"/>
+      <c r="AP238" s="154"/>
+      <c r="AQ238" s="154"/>
+      <c r="AR238" s="154"/>
+      <c r="AS238" s="154"/>
+      <c r="AT238" s="154"/>
+      <c r="AU238" s="154"/>
+      <c r="AV238" s="154"/>
+      <c r="AW238" s="154"/>
+      <c r="AX238" s="154"/>
+      <c r="AY238" s="154"/>
+      <c r="AZ238" s="155"/>
       <c r="BA238" s="107"/>
       <c r="BB238" s="107"/>
       <c r="BC238" s="107"/>
@@ -22281,199 +22282,199 @@
     <row r="239" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A239" s="107"/>
       <c r="B239" s="107"/>
-      <c r="C239" s="171"/>
-      <c r="D239" s="168" t="s">
+      <c r="C239" s="107"/>
+      <c r="D239" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="E239" s="169">
+      <c r="E239" s="157">
         <f>E11-SUM(E236:E238)-E125</f>
         <v>0</v>
       </c>
-      <c r="F239" s="169">
+      <c r="F239" s="157">
         <f t="shared" ref="F239:AZ239" si="37">F11-SUM(F236:F238)-F125</f>
         <v>0</v>
       </c>
-      <c r="G239" s="169">
+      <c r="G239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H239" s="169">
+      <c r="H239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I239" s="169">
+      <c r="I239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J239" s="169">
+      <c r="J239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="K239" s="169">
+      <c r="K239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L239" s="169">
+      <c r="L239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="M239" s="169">
+      <c r="M239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="N239" s="169">
+      <c r="N239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="O239" s="169">
+      <c r="O239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="P239" s="169">
+      <c r="P239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q239" s="169">
+      <c r="Q239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="R239" s="169">
+      <c r="R239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="S239" s="169">
+      <c r="S239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="T239" s="169">
+      <c r="T239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="U239" s="169">
+      <c r="U239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="V239" s="169">
+      <c r="V239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="W239" s="169">
+      <c r="W239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="X239" s="169">
+      <c r="X239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Y239" s="169">
+      <c r="Y239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Z239" s="169">
+      <c r="Z239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AA239" s="169">
+      <c r="AA239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB239" s="169">
+      <c r="AB239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AC239" s="169">
+      <c r="AC239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD239" s="169">
+      <c r="AD239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE239" s="169">
+      <c r="AE239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AF239" s="169">
+      <c r="AF239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AG239" s="169">
+      <c r="AG239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AH239" s="169">
+      <c r="AH239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AI239" s="169">
+      <c r="AI239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AJ239" s="169">
+      <c r="AJ239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AK239" s="169">
+      <c r="AK239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AL239" s="169">
+      <c r="AL239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AM239" s="169">
+      <c r="AM239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AN239" s="169">
+      <c r="AN239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AO239" s="169">
+      <c r="AO239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AP239" s="169">
+      <c r="AP239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AQ239" s="169">
+      <c r="AQ239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AR239" s="169">
+      <c r="AR239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS239" s="169">
+      <c r="AS239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AT239" s="169">
+      <c r="AT239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AU239" s="169">
+      <c r="AU239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AV239" s="169">
+      <c r="AV239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AW239" s="169">
+      <c r="AW239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AX239" s="169">
+      <c r="AX239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AY239" s="169">
+      <c r="AY239" s="157">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AZ239" s="170">
+      <c r="AZ239" s="158">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -22651,6 +22652,7 @@
       <c r="AX242" s="45"/>
       <c r="AY242" s="45"/>
       <c r="AZ242" s="45"/>
+      <c r="BC242" s="171"/>
     </row>
     <row r="243" spans="1:56" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K243" s="45"/>
@@ -22698,6 +22700,9 @@
       <c r="BA243" s="143" t="s">
         <v>135</v>
       </c>
+      <c r="BC243" s="172" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="245" spans="1:56" x14ac:dyDescent="0.2">
       <c r="K245" s="46"/>
